--- a/data/sector_correlations/2012_intra.xlsx
+++ b/data/sector_correlations/2012_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,461 +458,411 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gas Utilities(13)</t>
+          <t>Gas Utilities(12)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.504470944084267</v>
+        <v>0.5186801690767942</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Marine(16)</t>
+          <t>Multi-Utilities(18)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4682247566430023</v>
+        <v>0.500909479822461</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Multi-Utilities(19)</t>
+          <t>Marine(15)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4664684068786443</v>
+        <v>0.4852696261099415</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Energy Equipment &amp; Services(34)</t>
+          <t>Construction &amp; Engineering(20)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4090832456042651</v>
+        <v>0.4342946658154804</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Wireless Telecommunication Services(14)</t>
+          <t>Electric Utilities(28)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3941202375365044</v>
+        <v>0.4335275976640242</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Electric Utilities(29)</t>
+          <t>Building Products(23)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3934120341557806</v>
+        <v>0.423287851146404</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Construction &amp; Engineering(23)</t>
+          <t>Energy Equipment &amp; Services(32)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3763863134537232</v>
+        <v>0.4014413576978428</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Building Products(27)</t>
+          <t>Wireless Telecommunication Services(14)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3683205842638687</v>
+        <v>0.3941202375365044</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Air Freight &amp; Logistics(12)</t>
+          <t>Containers &amp; Packaging(12)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3416866752258915</v>
+        <v>0.380250765115083</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Auto Components(21)</t>
+          <t>Capital Markets(75)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3381824331755282</v>
+        <v>0.3400709109274582</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Blank Check / SPAC(32)</t>
+          <t>Auto Components(21)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3366166445522205</v>
+        <v>0.3381824331755282</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Containers &amp; Packaging(14)</t>
+          <t>Metals &amp; Mining(89)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3365218806988161</v>
+        <v>0.3225174197229803</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Water Utilities(13)</t>
+          <t>Life Sciences Tools &amp; Services(19)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3274260639169965</v>
+        <v>0.3191484823244686</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels(128)</t>
+          <t>Chemicals(51)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3099795630558238</v>
+        <v>0.3147291236923744</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Capital Markets(87)</t>
+          <t>Oil, Gas &amp; Consumable Fuels(122)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3055140991779928</v>
+        <v>0.3014667954366632</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Life Sciences Tools &amp; Services(20)</t>
+          <t>Machinery(85)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3022445086422994</v>
+        <v>0.292889759709287</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chemicals(55)</t>
+          <t>Insurance(75)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2993392117726099</v>
+        <v>0.2796246493324812</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining(95)</t>
+          <t>Diversified Consumer Services(17)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2986726409750602</v>
+        <v>0.2779035428496974</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Diversified Telecommunication Services(21)</t>
+          <t>Diversified Telecommunication Services(20)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2697859669863814</v>
+        <v>0.2711477173287575</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Insurance(80)</t>
+          <t>Pharmaceuticals(48)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2682631862892602</v>
+        <v>0.2676817266305845</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Shell Companies(18)</t>
+          <t>Professional Services(35)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2669546559759089</v>
+        <v>0.2566271024674783</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pharmaceuticals(56)</t>
+          <t>Banks(246)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.264149544757684</v>
+        <v>0.252534940170291</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Diversified Consumer Services(18)</t>
+          <t>Communications Equipment(45)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2601298348731684</v>
+        <v>0.2349719760356817</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Machinery(93)</t>
+          <t>Media(42)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2562156860998719</v>
+        <v>0.2298310009877373</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Real Estate Management &amp; Development(28)</t>
+          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2487798255806709</v>
+        <v>0.2274804531565094</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Professional Services(38)</t>
+          <t>Household Durables(39)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2401762742837217</v>
+        <v>0.2268738898233296</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Banks(271)</t>
+          <t>Trading Companies &amp; Distributors(25)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2338103492394712</v>
+        <v>0.2261234752372032</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Media(47)</t>
+          <t>Real Estate Management &amp; Development(22)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2272214679746364</v>
+        <v>0.2240819759548421</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(48)</t>
+          <t>IT Services(52)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2265458201294634</v>
+        <v>0.2229508408562265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Communications Equipment(50)</t>
+          <t>Health Care Providers &amp; Services(46)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2250716409134196</v>
+        <v>0.2199865389515617</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>IT Services(58)</t>
+          <t>Road &amp; Rail(22)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2140600681230966</v>
+        <v>0.199812233398616</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Household Durables(43)</t>
+          <t>Health Care Equipment &amp; Supplies(83)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2069941003004199</v>
+        <v>0.1983760338025612</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(87)</t>
+          <t>Software(66)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2024295701107827</v>
+        <v>0.1850055576448793</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Trading Companies &amp; Distributors(28)</t>
+          <t>Thrifts &amp; Mortgage Finance(47)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1955286504176423</v>
+        <v>0.184373386344324</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Consumer Finance(23)</t>
+          <t>Food Products(44)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1932493740453885</v>
+        <v>0.1839476891865025</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Semiconductors &amp; Semiconductor Equipment(75)</t>
+          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1858798978380936</v>
+        <v>0.178778919123491</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Software(70)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1851388205150578</v>
+        <v>0.1688693416197126</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Thrifts &amp; Mortgage Finance(52)</t>
+          <t>Hotels, Restaurants &amp; Leisure(50)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1750057876605079</v>
+        <v>0.1511507946053877</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(57)</t>
+          <t>Aerospace &amp; Defense(37)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1749149231852943</v>
+        <v>0.1492547521842049</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Food Products(47)</t>
+          <t>Specialty Retail(58)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1719954388840596</v>
+        <v>0.1408770635083056</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Textiles, Apparel &amp; Luxury Goods(30)</t>
+          <t>Biotechnology(126)</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1690459956986516</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Hotels, Restaurants &amp; Leisure(54)</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.1638078655484511</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Electrical Equipment(31)</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0.1565836994057282</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Aerospace &amp; Defense(43)</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.1535030394047793</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Specialty Retail(63)</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.1506548609048195</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Biotechnology(163)</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.132165719895023</v>
+        <v>0.09277268615541284</v>
       </c>
     </row>
   </sheetData>

--- a/data/sector_correlations/2012_intra.xlsx
+++ b/data/sector_correlations/2012_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,290 +578,300 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Life Sciences Tools &amp; Services(19)</t>
+          <t>No Sector(375)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3191484823244686</v>
+        <v>0.3193229740424094</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chemicals(51)</t>
+          <t>Life Sciences Tools &amp; Services(19)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3147291236923744</v>
+        <v>0.3191484823244686</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels(122)</t>
+          <t>Chemicals(51)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3014667954366632</v>
+        <v>0.3147291236923744</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Machinery(85)</t>
+          <t>Oil, Gas &amp; Consumable Fuels(122)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.292889759709287</v>
+        <v>0.3014667954366632</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Insurance(75)</t>
+          <t>Machinery(85)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2796246493324812</v>
+        <v>0.292889759709287</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Diversified Consumer Services(17)</t>
+          <t>Insurance(75)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2779035428496974</v>
+        <v>0.2796246493324812</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Diversified Telecommunication Services(20)</t>
+          <t>Diversified Consumer Services(17)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2711477173287575</v>
+        <v>0.2779035428496974</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pharmaceuticals(48)</t>
+          <t>Diversified Telecommunication Services(20)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2676817266305845</v>
+        <v>0.2711477173287575</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Professional Services(35)</t>
+          <t>Pharmaceuticals(48)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2566271024674783</v>
+        <v>0.2676817266305845</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Banks(246)</t>
+          <t>Professional Services(35)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.252534940170291</v>
+        <v>0.2566271024674783</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Communications Equipment(45)</t>
+          <t>Banks(246)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2349719760356817</v>
+        <v>0.252534940170291</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Media(42)</t>
+          <t>Communications Equipment(45)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2298310009877373</v>
+        <v>0.2349719760356817</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
+          <t>Media(42)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2274804531565094</v>
+        <v>0.2298310009877373</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Household Durables(39)</t>
+          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2268738898233296</v>
+        <v>0.2274804531565094</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Trading Companies &amp; Distributors(25)</t>
+          <t>Household Durables(39)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2261234752372032</v>
+        <v>0.2268738898233296</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Real Estate Management &amp; Development(22)</t>
+          <t>Trading Companies &amp; Distributors(25)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2240819759548421</v>
+        <v>0.2261234752372032</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IT Services(52)</t>
+          <t>Real Estate Management &amp; Development(22)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2229508408562265</v>
+        <v>0.2240819759548421</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(46)</t>
+          <t>IT Services(52)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2199865389515617</v>
+        <v>0.2229508408562265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Road &amp; Rail(22)</t>
+          <t>Health Care Providers &amp; Services(46)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.199812233398616</v>
+        <v>0.2199865389515617</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(83)</t>
+          <t>Road &amp; Rail(22)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1983760338025612</v>
+        <v>0.199812233398616</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Software(66)</t>
+          <t>Health Care Equipment &amp; Supplies(83)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1850055576448793</v>
+        <v>0.1983760338025612</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Thrifts &amp; Mortgage Finance(47)</t>
+          <t>Software(66)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.184373386344324</v>
+        <v>0.1850055576448793</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Food Products(44)</t>
+          <t>Thrifts &amp; Mortgage Finance(47)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1839476891865025</v>
+        <v>0.184373386344324</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
+          <t>Food Products(44)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.178778919123491</v>
+        <v>0.1839476891865025</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(52)</t>
+          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1688693416197126</v>
+        <v>0.178778919123491</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(50)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1511507946053877</v>
+        <v>0.1688693416197126</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense(37)</t>
+          <t>Hotels, Restaurants &amp; Leisure(50)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1492547521842049</v>
+        <v>0.1511507946053877</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Specialty Retail(58)</t>
+          <t>Aerospace &amp; Defense(37)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1408770635083056</v>
+        <v>0.1492547521842049</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>Specialty Retail(58)</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1408770635083056</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>Biotechnology(126)</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B44" t="n">
         <v>0.09277268615541284</v>
       </c>
     </row>

--- a/data/sector_correlations/2012_intra.xlsx
+++ b/data/sector_correlations/2012_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,391 +488,431 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Construction &amp; Engineering(20)</t>
+          <t>Construction &amp; Engineering(21)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4342946658154804</v>
+        <v>0.4515538674136891</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Electric Utilities(28)</t>
+          <t>Mortgage Real Estate Investment Trust...(16)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4335275976640242</v>
+        <v>0.4474746057728351</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Building Products(23)</t>
+          <t>Electric Utilities(28)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.423287851146404</v>
+        <v>0.4335275976640242</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Energy Equipment &amp; Services(32)</t>
+          <t>Wireless Telecommunication Services(14)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4014413576978428</v>
+        <v>0.3941202375365044</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Wireless Telecommunication Services(14)</t>
+          <t>Containers &amp; Packaging(12)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3941202375365044</v>
+        <v>0.380250765115083</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Containers &amp; Packaging(12)</t>
+          <t>Equity Real Estate Investment Trusts ...(98)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.380250765115083</v>
+        <v>0.3782152918493715</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Capital Markets(75)</t>
+          <t>Building Products(24)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3400709109274582</v>
+        <v>0.3715054006124927</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Auto Components(21)</t>
+          <t>ETF(303)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3381824331755282</v>
+        <v>0.3603432939999822</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining(89)</t>
+          <t>Auto Components(21)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3225174197229803</v>
+        <v>0.3381824331755282</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>No Sector(375)</t>
+          <t>Energy Equipment &amp; Services(38)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3193229740424094</v>
+        <v>0.3343197033573453</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Life Sciences Tools &amp; Services(19)</t>
+          <t>Capital Markets(76)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3191484823244686</v>
+        <v>0.328547175184346</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chemicals(51)</t>
+          <t>Life Sciences Tools &amp; Services(19)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3147291236923744</v>
+        <v>0.3191484823244686</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels(122)</t>
+          <t>Chemicals(52)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3014667954366632</v>
+        <v>0.3159253043852266</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Machinery(85)</t>
+          <t>Oil, Gas &amp; Consumable Fuels(125)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.292889759709287</v>
+        <v>0.300488469143191</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Insurance(75)</t>
+          <t>Machinery(86)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2796246493324812</v>
+        <v>0.2914865978817048</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Diversified Consumer Services(17)</t>
+          <t>Insurance(75)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2779035428496974</v>
+        <v>0.2796246493324812</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Diversified Telecommunication Services(20)</t>
+          <t>Diversified Consumer Services(17)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2711477173287575</v>
+        <v>0.2779035428496974</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pharmaceuticals(48)</t>
+          <t>Diversified Telecommunication Services(20)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2676817266305845</v>
+        <v>0.2711477173287575</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Professional Services(35)</t>
+          <t>Pharmaceuticals(53)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2566271024674783</v>
+        <v>0.2653524010583758</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Banks(246)</t>
+          <t>Professional Services(35)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.252534940170291</v>
+        <v>0.2566271024674783</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Communications Equipment(45)</t>
+          <t>Technology Hardware, Storage &amp; Periph...(19)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2349719760356817</v>
+        <v>0.2554864017417568</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Media(42)</t>
+          <t>Banks(251)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2298310009877373</v>
+        <v>0.2475183934629234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
+          <t>Metals &amp; Mining(106)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2274804531565094</v>
+        <v>0.2401803739102153</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Household Durables(39)</t>
+          <t>Communications Equipment(45)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2268738898233296</v>
+        <v>0.2349719760356817</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Trading Companies &amp; Distributors(25)</t>
+          <t>Real Estate Management &amp; Development(23)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2261234752372032</v>
+        <v>0.2314824023157566</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Real Estate Management &amp; Development(22)</t>
+          <t>Media(42)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2240819759548421</v>
+        <v>0.2298310009877373</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IT Services(52)</t>
+          <t>Household Durables(39)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2229508408562265</v>
+        <v>0.2268738898233296</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(46)</t>
+          <t>Trading Companies &amp; Distributors(25)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2199865389515617</v>
+        <v>0.2261234752372032</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Road &amp; Rail(22)</t>
+          <t>IT Services(52)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.199812233398616</v>
+        <v>0.2229508408562265</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(83)</t>
+          <t>Health Care Providers &amp; Services(47)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1983760338025612</v>
+        <v>0.2137223389562678</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Software(66)</t>
+          <t>Semiconductors &amp; Semiconductor Equipment(70)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1850055576448793</v>
+        <v>0.213702293559098</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Thrifts &amp; Mortgage Finance(47)</t>
+          <t>Health Care Equipment &amp; Supplies(86)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.184373386344324</v>
+        <v>0.2049337064446754</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Food Products(44)</t>
+          <t>Road &amp; Rail(22)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1839476891865025</v>
+        <v>0.199812233398616</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
+          <t>Thrifts &amp; Mortgage Finance(47)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.178778919123491</v>
+        <v>0.184373386344324</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(52)</t>
+          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1688693416197126</v>
+        <v>0.178778919123491</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(50)</t>
+          <t>Software(70)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1511507946053877</v>
+        <v>0.17000043990075</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense(37)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1492547521842049</v>
+        <v>0.1688693416197126</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Specialty Retail(58)</t>
+          <t>Food Products(46)</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1408770635083056</v>
+        <v>0.1671951914030452</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Biotechnology(126)</t>
+          <t>Hotels, Restaurants &amp; Leisure(51)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.09277268615541284</v>
+        <v>0.1528489294252231</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Aerospace &amp; Defense(37)</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.1492547521842049</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Specialty Retail(59)</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.1386370704968179</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Electronic Equipment, Instruments &amp; C...(78)</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.1331343574556911</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Biotechnology(128)</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.09617365007536748</v>
       </c>
     </row>
   </sheetData>
